--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154224.7789705892</v>
+        <v>-154891.3964070102</v>
       </c>
     </row>
     <row r="7">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>84.54481721446578</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>35.11593247269261</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279471</v>
+        <v>36.42873081279465</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.73722555752678</v>
+        <v>23.12798498931289</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863217996</v>
+        <v>18.30111863217991</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998752</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>84.54481721446578</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>68.00235948737408</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>84.54481721446578</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.83321277868794</v>
+        <v>10.83321277868788</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411944</v>
+        <v>33.11619900411939</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923762</v>
+        <v>65.88187843456534</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084696</v>
+        <v>62.59314185084691</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330598</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.27284440786099</v>
+        <v>19.27284440786093</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479813</v>
+        <v>31.23138271479807</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258698</v>
+        <v>19.62677120258693</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828527</v>
+        <v>40.99757345828522</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="X13" t="n">
-        <v>17.8080136820779</v>
+        <v>17.80801368207784</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800379</v>
+        <v>13.02983108800373</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>58.24391746200534</v>
       </c>
       <c r="I14" t="n">
         <v>36.42873081279468</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931291</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863217994</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.03812530998755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14.91035920039405</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="X14" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606021</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>10.83321277868791</v>
       </c>
       <c r="U15" t="n">
-        <v>33.11619900411942</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="V15" t="n">
-        <v>84.54481721446601</v>
+        <v>36.53747918923759</v>
       </c>
       <c r="W15" t="n">
-        <v>82.58816331299342</v>
+        <v>62.59314185084693</v>
       </c>
       <c r="X15" t="n">
         <v>13.20147271330595</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786096</v>
+        <v>29.80905136128312</v>
       </c>
     </row>
     <row r="16">
@@ -1819,13 +1819,13 @@
         <v>19.62677120258695</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="V16" t="n">
         <v>40.99757345828525</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="X16" t="n">
         <v>17.80801368207787</v>
@@ -1844,7 +1844,7 @@
         <v>38.65434805750084</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084726</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D17" t="n">
         <v>2.339267321894795</v>
@@ -1856,10 +1856,10 @@
         <v>67.76635731968099</v>
       </c>
       <c r="G17" t="n">
-        <v>83.39309993609683</v>
+        <v>83.3930999360968</v>
       </c>
       <c r="H17" t="n">
-        <v>11.46376063065044</v>
+        <v>11.46376063065043</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>84.54481721446601</v>
+        <v>16.57010772354252</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>74.46707500250163</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606021</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.65434805750084</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C20" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321893931</v>
       </c>
       <c r="E20" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G20" t="n">
-        <v>83.39309993609683</v>
+        <v>83.39309993609689</v>
       </c>
       <c r="H20" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X20" t="n">
-        <v>24.34982197437364</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="21">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>74.46707500250163</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="E21" t="n">
-        <v>84.54481721446601</v>
+        <v>16.57010772354248</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.037534323606021</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.65434805750084</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C23" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D23" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E23" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F23" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609683</v>
+        <v>83.39309993609689</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34982197437364</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>74.4670750025016</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="S24" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.42954067889559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.246796807794</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111395</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D26" t="n">
         <v>124.9317160721879</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6384684915968</v>
+        <v>158.6384684915967</v>
       </c>
       <c r="F26" t="n">
         <v>190.3588060699741</v>
       </c>
       <c r="G26" t="n">
-        <v>205.98554868639</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896892</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543822</v>
+        <v>14.39898314543817</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305237</v>
+        <v>9.572116788305181</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611285</v>
+        <v>37.30912346611279</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391127</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W26" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246668</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4451238484105</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>156.0234532902908</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813207</v>
+        <v>2.104210934813151</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024472</v>
+        <v>136.1842844026095</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80847734536289</v>
+        <v>27.80847734536283</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697218</v>
       </c>
       <c r="X27" t="n">
-        <v>4.472470869431248</v>
+        <v>4.472470869431191</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398626</v>
+        <v>10.5438425639862</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.5023808709234</v>
+        <v>22.50238087092335</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871225</v>
+        <v>10.8977693587122</v>
       </c>
       <c r="U28" t="n">
-        <v>75.8158153705913</v>
+        <v>75.81581537059124</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441055</v>
+        <v>32.26857161441049</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929597</v>
+        <v>77.47026351929591</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203172</v>
+        <v>9.079011838203115</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129062</v>
+        <v>4.300829244129005</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6384684915968</v>
+        <v>158.6384684915967</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G29" t="n">
         <v>205.9855486863899</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891996</v>
+        <v>27.69972896891991</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543819</v>
+        <v>14.39898314543813</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305209</v>
+        <v>9.572116788305152</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V29" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X29" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>136.3053669101338</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813179</v>
+        <v>2.104210934813122</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024469</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536286</v>
+        <v>27.8084773453628</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86414000697221</v>
+        <v>53.86414000697215</v>
       </c>
       <c r="X30" t="n">
-        <v>4.47247086943122</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y30" t="n">
-        <v>160.4147098359167</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092337</v>
+        <v>22.50238087092332</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89776935871223</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059127</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2467968077938</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3650538111393</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9317160721878</v>
+        <v>124.9317160721879</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6384684915967</v>
+        <v>158.6384684915968</v>
       </c>
       <c r="F32" t="n">
-        <v>190.358806069974</v>
+        <v>190.3588060699741</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9855486863898</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0562093809434</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891986</v>
+        <v>27.69972896891997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543808</v>
+        <v>14.39898314543819</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305095</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611271</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0393400391125</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0560202557274</v>
+        <v>125.0560202557275</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9422707246666</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4451238484104</v>
+        <v>169.4451238484105</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>157.3488521888934</v>
+        <v>145.0658462480181</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9446545048526</v>
+        <v>2.104210934813179</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024458</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697209</v>
+        <v>53.86414000697221</v>
       </c>
       <c r="X33" t="n">
-        <v>4.472470869431106</v>
+        <v>4.47247086943122</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54384256398612</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092326</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89776935871211</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059115</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2685716144104</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929583</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X34" t="n">
-        <v>9.07901183820303</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.30082924412892</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C35" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D35" t="n">
         <v>101.5370678635605</v>
       </c>
       <c r="E35" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G35" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748538</v>
+        <v>13.91447525748547</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048519</v>
+        <v>84.64469183048527</v>
       </c>
       <c r="W35" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X35" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y35" t="n">
         <v>146.0504756397831</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>26.33917158707843</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>24.36315837729806</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516173334</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735416</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834476</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196382</v>
+        <v>52.42116716196391</v>
       </c>
       <c r="V37" t="n">
-        <v>8.873923405783074</v>
+        <v>8.87392340578316</v>
       </c>
       <c r="W37" t="n">
-        <v>54.0756153106685</v>
+        <v>54.07561531066858</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C38" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D38" t="n">
         <v>101.5370678635605</v>
@@ -3518,10 +3518,10 @@
         <v>182.5909004777625</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748546</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048521</v>
+        <v>84.64469183048527</v>
       </c>
       <c r="W38" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X38" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y38" t="n">
         <v>146.0504756397831</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516173334</v>
       </c>
       <c r="V39" t="n">
-        <v>4.413829136735444</v>
+        <v>236.7841443788664</v>
       </c>
       <c r="W39" t="n">
-        <v>225.4444470208239</v>
+        <v>30.46949179834485</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196391</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783103</v>
+        <v>8.87392340578316</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066858</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C41" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E41" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292554</v>
+        <v>4.30508076029264</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748541</v>
+        <v>13.9144752574855</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>44.85216371776485</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735444</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834488</v>
       </c>
       <c r="X42" t="n">
-        <v>202.0690326144902</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C44" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D44" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E44" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G44" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6615611723159</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760293777</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748549</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W44" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W45" t="n">
-        <v>36.1398590888155</v>
+        <v>30.46949179834488</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>150.0884483789344</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.3578937021333</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="C11" t="n">
-        <v>214.3578937021333</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="D11" t="n">
-        <v>128.9590884349961</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="E11" t="n">
-        <v>128.9590884349961</v>
+        <v>214.3578937021337</v>
       </c>
       <c r="F11" t="n">
-        <v>128.9590884349961</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="G11" t="n">
-        <v>128.9590884349961</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785899</v>
+        <v>43.56028316785898</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157263</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J11" t="n">
-        <v>9.144720144961433</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K11" t="n">
-        <v>9.144720144961433</v>
+        <v>82.94899698275029</v>
       </c>
       <c r="L11" t="n">
-        <v>57.76854735444513</v>
+        <v>131.572824192234</v>
       </c>
       <c r="M11" t="n">
-        <v>140.7478836179999</v>
+        <v>214.5521604557887</v>
       </c>
       <c r="N11" t="n">
-        <v>218.2274762775296</v>
+        <v>292.0317531153185</v>
       </c>
       <c r="O11" t="n">
-        <v>254.479899815542</v>
+        <v>328.2841766533309</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1792688578631</v>
+        <v>328.2841766533309</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.1792688578631</v>
+        <v>328.2841766533309</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578631</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="S11" t="n">
-        <v>318.2426773856138</v>
+        <v>314.8176678585579</v>
       </c>
       <c r="T11" t="n">
-        <v>299.7566989692705</v>
+        <v>296.3316894422145</v>
       </c>
       <c r="U11" t="n">
-        <v>299.7566989692705</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="V11" t="n">
-        <v>299.7566989692705</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="W11" t="n">
-        <v>299.7566989692705</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="X11" t="n">
-        <v>214.3578937021333</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.3578937021333</v>
+        <v>249.8285325634393</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.45283738460584</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157263</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157263</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825741</v>
+        <v>45.76878079825742</v>
       </c>
       <c r="L12" t="n">
-        <v>129.4681498405785</v>
+        <v>87.08116173089995</v>
       </c>
       <c r="M12" t="n">
-        <v>170.7805307732209</v>
+        <v>170.7805307732212</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732209</v>
+        <v>254.4798998155425</v>
       </c>
       <c r="O12" t="n">
-        <v>254.479899815542</v>
+        <v>254.4798998155425</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578631</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.1792688578631</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="R12" t="n">
-        <v>338.1792688578631</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="S12" t="n">
-        <v>252.780463590726</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="T12" t="n">
-        <v>241.8378244203341</v>
+        <v>327.236629687472</v>
       </c>
       <c r="U12" t="n">
-        <v>208.387118355567</v>
+        <v>293.785923622705</v>
       </c>
       <c r="V12" t="n">
-        <v>171.4805737199734</v>
+        <v>227.2385716685986</v>
       </c>
       <c r="W12" t="n">
-        <v>108.2551779110371</v>
+        <v>164.0131758596623</v>
       </c>
       <c r="X12" t="n">
-        <v>94.92035698850583</v>
+        <v>78.61437059252495</v>
       </c>
       <c r="Y12" t="n">
-        <v>75.45283738460584</v>
+        <v>59.14685098862501</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.763585377157263</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="C13" t="n">
-        <v>6.763585377157263</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="D13" t="n">
-        <v>65.10308893785664</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="E13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="G13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="H13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K13" t="n">
-        <v>126.9140364466569</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L13" t="n">
-        <v>126.9140364466569</v>
+        <v>57.5169004533016</v>
       </c>
       <c r="M13" t="n">
-        <v>126.9140364466569</v>
+        <v>141.2162694956229</v>
       </c>
       <c r="N13" t="n">
-        <v>210.613405488978</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="O13" t="n">
-        <v>216.876844644174</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="P13" t="n">
-        <v>300.5762136864951</v>
+        <v>224.9156385379442</v>
       </c>
       <c r="Q13" t="n">
-        <v>300.5762136864951</v>
+        <v>301.494097068757</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687569</v>
+        <v>301.494097068757</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416881</v>
+        <v>269.9472458416882</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249336</v>
+        <v>250.1222244249338</v>
       </c>
       <c r="U13" t="n">
         <v>164.7234191577964</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958921</v>
+        <v>123.3117287958922</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875493</v>
+        <v>37.91292352875483</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059543</v>
+        <v>19.92503092059539</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157263</v>
+        <v>6.763585377157276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.9590884349964</v>
+        <v>187.7913282956078</v>
       </c>
       <c r="C14" t="n">
-        <v>43.56028316785898</v>
+        <v>187.7913282956078</v>
       </c>
       <c r="D14" t="n">
-        <v>43.56028316785898</v>
+        <v>187.7913282956078</v>
       </c>
       <c r="E14" t="n">
-        <v>43.56028316785898</v>
+        <v>102.3925230284704</v>
       </c>
       <c r="F14" t="n">
-        <v>43.56028316785898</v>
+        <v>102.3925230284704</v>
       </c>
       <c r="G14" t="n">
-        <v>43.56028316785898</v>
+        <v>102.3925230284704</v>
       </c>
       <c r="H14" t="n">
         <v>43.56028316785898</v>
       </c>
       <c r="I14" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J14" t="n">
-        <v>45.39714368297447</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K14" t="n">
-        <v>45.39714368297447</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L14" t="n">
-        <v>94.02097089245817</v>
+        <v>55.38741258664098</v>
       </c>
       <c r="M14" t="n">
-        <v>177.0003071560129</v>
+        <v>138.3667488501957</v>
       </c>
       <c r="N14" t="n">
-        <v>254.4798998155427</v>
+        <v>215.8463415097255</v>
       </c>
       <c r="O14" t="n">
-        <v>338.179268857864</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="P14" t="n">
-        <v>338.179268857864</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.179268857864</v>
+        <v>328.284176653331</v>
       </c>
       <c r="R14" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="S14" t="n">
-        <v>314.8176678585581</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="T14" t="n">
-        <v>314.8176678585581</v>
+        <v>319.6932904415204</v>
       </c>
       <c r="U14" t="n">
-        <v>314.8176678585581</v>
+        <v>273.1901335627451</v>
       </c>
       <c r="V14" t="n">
-        <v>314.8176678585581</v>
+        <v>273.1901335627451</v>
       </c>
       <c r="W14" t="n">
-        <v>299.7566989692712</v>
+        <v>187.7913282956078</v>
       </c>
       <c r="X14" t="n">
-        <v>214.3578937021338</v>
+        <v>187.7913282956078</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.9590884349964</v>
+        <v>187.7913282956078</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.16239064429467</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="C15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="D15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="E15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="F15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="G15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="H15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K15" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L15" t="n">
-        <v>87.08116173090001</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="M15" t="n">
-        <v>170.7805307732214</v>
+        <v>87.08116173089995</v>
       </c>
       <c r="N15" t="n">
-        <v>170.7805307732214</v>
+        <v>170.7805307732212</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155427</v>
+        <v>254.4798998155425</v>
       </c>
       <c r="P15" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R15" t="n">
-        <v>338.179268857864</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="S15" t="n">
-        <v>338.179268857864</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="T15" t="n">
-        <v>327.2366296874722</v>
+        <v>235.7393049015407</v>
       </c>
       <c r="U15" t="n">
-        <v>293.7859236227051</v>
+        <v>150.3404996344033</v>
       </c>
       <c r="V15" t="n">
-        <v>208.3871183555677</v>
+        <v>113.4339549988098</v>
       </c>
       <c r="W15" t="n">
-        <v>124.9647311707259</v>
+        <v>50.20855918987351</v>
       </c>
       <c r="X15" t="n">
-        <v>111.6299102481946</v>
+        <v>36.87373826734225</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.16239064429467</v>
+        <v>6.763585377157276</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.76358537715728</v>
+        <v>32.99316122774187</v>
       </c>
       <c r="C16" t="n">
-        <v>6.76358537715728</v>
+        <v>70.27087937439225</v>
       </c>
       <c r="D16" t="n">
-        <v>65.10308893785668</v>
+        <v>70.27087937439225</v>
       </c>
       <c r="E16" t="n">
-        <v>65.10308893785668</v>
+        <v>79.4553085509048</v>
       </c>
       <c r="F16" t="n">
-        <v>65.10308893785668</v>
+        <v>143.9880224635456</v>
       </c>
       <c r="G16" t="n">
-        <v>65.10308893785668</v>
+        <v>179.0499918015871</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0553553365033</v>
+        <v>179.0499918015871</v>
       </c>
       <c r="I16" t="n">
-        <v>103.0553553365033</v>
+        <v>218.0785503306613</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0553553365033</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="K16" t="n">
-        <v>103.0553553365033</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="L16" t="n">
-        <v>186.7547243788247</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="M16" t="n">
-        <v>186.7547243788247</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="N16" t="n">
-        <v>217.7947280264359</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="O16" t="n">
-        <v>217.7947280264359</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="P16" t="n">
-        <v>301.4940970687572</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687572</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687572</v>
+        <v>301.4940970687571</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416885</v>
+        <v>269.9472458416884</v>
       </c>
       <c r="T16" t="n">
-        <v>250.122224424934</v>
+        <v>250.1222244249338</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577966</v>
+        <v>164.7234191577965</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958923</v>
+        <v>123.3117287958922</v>
       </c>
       <c r="W16" t="n">
         <v>37.91292352875489</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059543</v>
+        <v>19.92503092059542</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594538</v>
+        <v>224.7243025594535</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656691</v>
+        <v>209.8024792656693</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809268</v>
+        <v>207.439582980927</v>
       </c>
       <c r="E17" t="n">
-        <v>171.029462030115</v>
+        <v>171.0294620301152</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506394</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973349</v>
+        <v>18.34314156973346</v>
       </c>
       <c r="H17" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I17" t="n">
-        <v>6.76358537715728</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="J17" t="n">
-        <v>6.76358537715728</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="K17" t="n">
-        <v>6.76358537715728</v>
+        <v>92.84408918728317</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664098</v>
+        <v>141.4679163967669</v>
       </c>
       <c r="M17" t="n">
-        <v>138.3667488501957</v>
+        <v>224.4472526603216</v>
       </c>
       <c r="N17" t="n">
-        <v>222.0661178925171</v>
+        <v>301.9268453198514</v>
       </c>
       <c r="O17" t="n">
-        <v>258.3185414305295</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="P17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="R17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="S17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="T17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="U17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="V17" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917687</v>
+        <v>335.6908127917685</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196742</v>
+        <v>311.0950330196739</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771313</v>
+        <v>263.7690985771311</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="C18" t="n">
-        <v>167.3816583235892</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="D18" t="n">
-        <v>81.98285305645186</v>
+        <v>315.343266790037</v>
       </c>
       <c r="E18" t="n">
-        <v>81.98285305645186</v>
+        <v>229.9444615228997</v>
       </c>
       <c r="F18" t="n">
-        <v>81.98285305645186</v>
+        <v>144.5456562557623</v>
       </c>
       <c r="G18" t="n">
-        <v>81.98285305645186</v>
+        <v>144.5456562557623</v>
       </c>
       <c r="H18" t="n">
-        <v>6.76358537715728</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="I18" t="n">
-        <v>6.76358537715728</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="J18" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K18" t="n">
-        <v>45.76878079825742</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L18" t="n">
-        <v>45.76878079825742</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="M18" t="n">
-        <v>129.4681498405788</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="N18" t="n">
-        <v>213.1675188829001</v>
+        <v>170.7805307732212</v>
       </c>
       <c r="O18" t="n">
-        <v>296.8668879252215</v>
+        <v>254.4798998155425</v>
       </c>
       <c r="P18" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R18" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="S18" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="T18" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="U18" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="V18" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="W18" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="X18" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="Y18" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="C19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="D19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="E19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="F19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="G19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="H19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="M19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="N19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="O19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="P19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="R19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="S19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="T19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="U19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="V19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="W19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="X19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594536</v>
+        <v>224.724302559453</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656694</v>
+        <v>209.8024792656688</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809271</v>
+        <v>207.4395829809278</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301153</v>
+        <v>171.029462030116</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506395</v>
+        <v>102.5785960506401</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973347</v>
+        <v>18.34314156973352</v>
       </c>
       <c r="H20" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I20" t="n">
-        <v>6.76358537715728</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="J20" t="n">
-        <v>6.76358537715728</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="K20" t="n">
-        <v>6.76358537715728</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="L20" t="n">
-        <v>57.76854735444581</v>
+        <v>139.0867816289623</v>
       </c>
       <c r="M20" t="n">
-        <v>140.7478836180006</v>
+        <v>222.066117892517</v>
       </c>
       <c r="N20" t="n">
-        <v>218.2274762775303</v>
+        <v>299.5457105520468</v>
       </c>
       <c r="O20" t="n">
-        <v>254.4798998155427</v>
+        <v>335.7981340900592</v>
       </c>
       <c r="P20" t="n">
-        <v>338.179268857864</v>
+        <v>335.7981340900592</v>
       </c>
       <c r="Q20" t="n">
-        <v>338.179268857864</v>
+        <v>335.7981340900592</v>
       </c>
       <c r="R20" t="n">
-        <v>338.179268857864</v>
+        <v>335.7981340900592</v>
       </c>
       <c r="S20" t="n">
-        <v>338.179268857864</v>
+        <v>335.7981340900592</v>
       </c>
       <c r="T20" t="n">
-        <v>338.179268857864</v>
+        <v>335.7981340900592</v>
       </c>
       <c r="U20" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="V20" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917687</v>
+        <v>335.6908127917684</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196741</v>
+        <v>311.0950330196737</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771312</v>
+        <v>263.7690985771307</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="C21" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="D21" t="n">
-        <v>177.5611959114321</v>
+        <v>75.88433353765782</v>
       </c>
       <c r="E21" t="n">
-        <v>92.16239064429467</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="F21" t="n">
-        <v>92.16239064429467</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="G21" t="n">
-        <v>92.16239064429467</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="H21" t="n">
-        <v>92.16239064429467</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="I21" t="n">
-        <v>6.76358537715728</v>
+        <v>59.14685098862501</v>
       </c>
       <c r="J21" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825742</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L21" t="n">
-        <v>129.4681498405788</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="M21" t="n">
-        <v>129.4681498405788</v>
+        <v>87.08116173089995</v>
       </c>
       <c r="N21" t="n">
-        <v>213.1675188829001</v>
+        <v>170.7805307732212</v>
       </c>
       <c r="O21" t="n">
-        <v>296.8668879252215</v>
+        <v>254.4798998155425</v>
       </c>
       <c r="P21" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="R21" t="n">
-        <v>338.179268857864</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="S21" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="T21" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="U21" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390698</v>
       </c>
       <c r="V21" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="W21" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="X21" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="Y21" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047952</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="C22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="D22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="E22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="F22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="G22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="H22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="M22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="N22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="O22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="P22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="R22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="S22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="T22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="U22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="V22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="W22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="X22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594536</v>
+        <v>224.7243025594533</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656694</v>
+        <v>209.8024792656691</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809271</v>
+        <v>207.4395829809268</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301153</v>
+        <v>171.0294620301149</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506395</v>
+        <v>102.578596050639</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973347</v>
+        <v>18.34314156973352</v>
       </c>
       <c r="H23" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I23" t="n">
-        <v>6.76358537715728</v>
+        <v>90.46295441947856</v>
       </c>
       <c r="J23" t="n">
-        <v>6.76358537715728</v>
+        <v>92.84408918728317</v>
       </c>
       <c r="K23" t="n">
-        <v>6.76358537715728</v>
+        <v>92.84408918728317</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664098</v>
+        <v>141.4679163967669</v>
       </c>
       <c r="M23" t="n">
-        <v>138.3667488501957</v>
+        <v>224.4472526603216</v>
       </c>
       <c r="N23" t="n">
-        <v>215.8463415097255</v>
+        <v>301.9268453198514</v>
       </c>
       <c r="O23" t="n">
-        <v>252.0987650477379</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0987650477379</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0987650477379</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0987650477379</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="S23" t="n">
-        <v>252.0987650477379</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="T23" t="n">
-        <v>252.0987650477379</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="U23" t="n">
-        <v>335.7981340900592</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="V23" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917687</v>
+        <v>335.6908127917685</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196741</v>
+        <v>311.0950330196739</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.7690985771312</v>
+        <v>263.769098577131</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.16239064429467</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="C24" t="n">
-        <v>92.16239064429467</v>
+        <v>177.5611959114319</v>
       </c>
       <c r="D24" t="n">
-        <v>92.16239064429467</v>
+        <v>177.5611959114319</v>
       </c>
       <c r="E24" t="n">
-        <v>6.76358537715728</v>
+        <v>92.1623906442946</v>
       </c>
       <c r="F24" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="G24" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="H24" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I24" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J24" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K24" t="n">
-        <v>6.76358537715728</v>
+        <v>45.76878079825742</v>
       </c>
       <c r="L24" t="n">
-        <v>87.08116173090001</v>
+        <v>87.08116173089995</v>
       </c>
       <c r="M24" t="n">
-        <v>170.7805307732214</v>
+        <v>87.08116173089995</v>
       </c>
       <c r="N24" t="n">
-        <v>254.4798998155427</v>
+        <v>170.7805307732212</v>
       </c>
       <c r="O24" t="n">
-        <v>254.4798998155427</v>
+        <v>254.4798998155425</v>
       </c>
       <c r="P24" t="n">
-        <v>338.179268857864</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="Q24" t="n">
-        <v>332.0807493390701</v>
+        <v>338.1792688578638</v>
       </c>
       <c r="R24" t="n">
-        <v>332.0807493390701</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="S24" t="n">
-        <v>246.6819440719327</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="T24" t="n">
-        <v>246.6819440719327</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="U24" t="n">
-        <v>246.6819440719327</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="V24" t="n">
-        <v>246.6819440719327</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="W24" t="n">
-        <v>246.6819440719327</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="X24" t="n">
-        <v>161.2831388047953</v>
+        <v>252.7804635907265</v>
       </c>
       <c r="Y24" t="n">
-        <v>92.16239064429467</v>
+        <v>252.7804635907265</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="C25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="D25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="E25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="F25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="G25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="H25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="I25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="J25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="K25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="L25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="M25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="N25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="O25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="P25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="R25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="S25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="T25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="U25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="V25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="W25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="X25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.76358537715728</v>
+        <v>6.763585377157276</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>886.2687840112824</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131129</v>
+        <v>760.0751314131128</v>
       </c>
       <c r="E26" t="n">
         <v>599.8342541488737</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559705</v>
+        <v>407.5526318559706</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616374</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563388</v>
+        <v>64.07610855563382</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460357</v>
@@ -6230,10 +6230,10 @@
         <v>377.4043607994713</v>
       </c>
       <c r="L26" t="n">
-        <v>636.740227143294</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411877</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N26" t="n">
         <v>1218.623234335056</v>
@@ -6254,7 +6254,7 @@
         <v>1790.284789810544</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973871</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U26" t="n">
         <v>1742.930001674768</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>320.6380337774515</v>
+        <v>385.9365748943958</v>
       </c>
       <c r="C27" t="n">
-        <v>163.038586009481</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="D27" t="n">
-        <v>163.038586009481</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="E27" t="n">
-        <v>163.038586009481</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="F27" t="n">
-        <v>163.038586009481</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G27" t="n">
-        <v>163.038586009481</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H27" t="n">
         <v>36.09658434460357</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992857</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7248437804917</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="R27" t="n">
-        <v>660.0529655459868</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="S27" t="n">
-        <v>660.0529655459868</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="T27" t="n">
-        <v>657.9274999552664</v>
+        <v>799.6978977085653</v>
       </c>
       <c r="U27" t="n">
-        <v>633.2939674701707</v>
+        <v>662.1380144736062</v>
       </c>
       <c r="V27" t="n">
-        <v>605.2045964142486</v>
+        <v>634.0486434176842</v>
       </c>
       <c r="W27" t="n">
-        <v>335.8060271445399</v>
+        <v>579.6404211884193</v>
       </c>
       <c r="X27" t="n">
-        <v>331.2883798016801</v>
+        <v>575.1227738455594</v>
       </c>
       <c r="Y27" t="n">
-        <v>320.6380337774515</v>
+        <v>564.4724278213309</v>
       </c>
     </row>
     <row r="28">
@@ -6385,46 +6385,46 @@
         <v>36.09658434460357</v>
       </c>
       <c r="K28" t="n">
-        <v>181.077394647582</v>
+        <v>91.09209811606837</v>
       </c>
       <c r="L28" t="n">
-        <v>181.077394647582</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="M28" t="n">
-        <v>181.077394647582</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="N28" t="n">
-        <v>181.077394647582</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772726</v>
+        <v>248.0483630772723</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401895</v>
+        <v>237.0405152401892</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527235</v>
+        <v>160.4588835527233</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704906</v>
+        <v>127.8643667704905</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685835</v>
+        <v>49.61157533685824</v>
       </c>
       <c r="X28" t="n">
-        <v>40.4408563083703</v>
+        <v>40.44085630837024</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09658434460357</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.021363618493</v>
+        <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112818</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131122</v>
+        <v>760.075131413113</v>
       </c>
       <c r="E29" t="n">
-        <v>599.834254148873</v>
+        <v>599.834254148874</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559698</v>
+        <v>407.552631855971</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4864210616374</v>
+        <v>199.4864210616372</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563382</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I29" t="n">
         <v>36.09658434460357</v>
@@ -6464,10 +6464,10 @@
         <v>171.8183046963238</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L29" t="n">
-        <v>636.740227143294</v>
+        <v>636.7402271432942</v>
       </c>
       <c r="M29" t="n">
         <v>930.4316025411879</v>
@@ -6494,19 +6494,19 @@
         <v>1780.615984973872</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.930001674767</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.799355170613</v>
+        <v>1633.799355170614</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.48014279109</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.053606705568</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.896915949598</v>
+        <v>1187.896915949599</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.0140641551029</v>
+        <v>225.5088586116399</v>
       </c>
       <c r="C30" t="n">
-        <v>336.6017898880666</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D30" t="n">
-        <v>336.6017898880666</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E30" t="n">
-        <v>163.038586009481</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F30" t="n">
-        <v>163.038586009481</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G30" t="n">
-        <v>163.038586009481</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H30" t="n">
         <v>36.09658434460357</v>
@@ -6564,28 +6564,28 @@
         <v>801.8233632992857</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992857</v>
+        <v>666.1514850647808</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992857</v>
+        <v>528.4692962666659</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085653</v>
+        <v>526.3438306759456</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0643652234696</v>
+        <v>501.71029819085</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9749941675475</v>
+        <v>473.620927134928</v>
       </c>
       <c r="W30" t="n">
-        <v>692.5667719382826</v>
+        <v>419.2127049056631</v>
       </c>
       <c r="X30" t="n">
-        <v>688.0491245954228</v>
+        <v>414.6950575628034</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.0140641551029</v>
+        <v>404.0447115385749</v>
       </c>
     </row>
     <row r="31">
@@ -6613,55 +6613,55 @@
         <v>36.09658434460357</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460357</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460357</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="J31" t="n">
-        <v>91.09209811606857</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="K31" t="n">
-        <v>91.09209811606857</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="L31" t="n">
-        <v>270.7780407246697</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7780407246697</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7780407246697</v>
+        <v>82.69056256868623</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7780407246697</v>
+        <v>257.0630733701159</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8643667704906</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685829</v>
+        <v>49.61157533685818</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837027</v>
+        <v>40.44085630837021</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09658434460357</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.021363618495</v>
+        <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112833</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131138</v>
+        <v>760.075131413113</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488747</v>
+        <v>599.8342541488738</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559717</v>
+        <v>407.5526318559707</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616379</v>
+        <v>199.4864210616374</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563374</v>
+        <v>64.07610855563385</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460357</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994715</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432943</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411881</v>
+        <v>930.4316025411877</v>
       </c>
       <c r="N32" t="n">
         <v>1218.623234335056</v>
@@ -6737,13 +6737,13 @@
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.8969159496</v>
+        <v>1187.896915949599</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>247.4180844903071</v>
+        <v>677.3987785711943</v>
       </c>
       <c r="C33" t="n">
-        <v>88.47984995607131</v>
+        <v>530.8676207449133</v>
       </c>
       <c r="D33" t="n">
-        <v>88.47984995607131</v>
+        <v>370.087504505945</v>
       </c>
       <c r="E33" t="n">
-        <v>88.47984995607131</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="F33" t="n">
-        <v>88.47984995607131</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G33" t="n">
-        <v>88.47984995607131</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H33" t="n">
-        <v>88.47984995607131</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I33" t="n">
-        <v>88.47984995607131</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J33" t="n">
         <v>36.09658434460357</v>
@@ -6807,22 +6807,22 @@
         <v>801.8233632992857</v>
       </c>
       <c r="T33" t="n">
-        <v>584.7075506681215</v>
+        <v>799.6978977085653</v>
       </c>
       <c r="U33" t="n">
-        <v>560.0740181830259</v>
+        <v>775.0643652234696</v>
       </c>
       <c r="V33" t="n">
-        <v>316.99430008666</v>
+        <v>746.9749941675475</v>
       </c>
       <c r="W33" t="n">
-        <v>262.5860778573953</v>
+        <v>692.5667719382826</v>
       </c>
       <c r="X33" t="n">
-        <v>258.0684305145355</v>
+        <v>688.0491245954228</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.4180844903071</v>
+        <v>677.3987785711943</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>36.09658434460357</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09658434460357</v>
+        <v>60.16974026622127</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09658434460357</v>
+        <v>127.1509556523567</v>
       </c>
       <c r="E34" t="n">
-        <v>106.5492436788399</v>
+        <v>197.6036149865929</v>
       </c>
       <c r="F34" t="n">
-        <v>179.7236694169168</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="G34" t="n">
-        <v>179.7236694169168</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="H34" t="n">
-        <v>226.3176476409996</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="I34" t="n">
-        <v>226.3176476409996</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="J34" t="n">
-        <v>226.3176476409996</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="K34" t="n">
-        <v>226.3176476409996</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="L34" t="n">
-        <v>226.3176476409996</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="M34" t="n">
-        <v>226.3176476409996</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246689</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772717</v>
+        <v>248.0483630772724</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401888</v>
+        <v>237.0405152401893</v>
       </c>
       <c r="U34" t="n">
-        <v>160.458883552723</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704902</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685807</v>
+        <v>49.61157533685829</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837016</v>
+        <v>40.44085630837027</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09658434460357</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358895</v>
+        <v>852.8410737358901</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151703</v>
+        <v>737.7194519151708</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034931</v>
+        <v>635.1567571034934</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257463</v>
+        <v>498.5468376257465</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193356</v>
+        <v>329.8961731193357</v>
       </c>
       <c r="G35" t="n">
         <v>145.4609201114947</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198418</v>
+        <v>33.68156539198429</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K35" t="n">
-        <v>188.2154210457076</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L35" t="n">
-        <v>470.7119891160714</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M35" t="n">
-        <v>787.5640662405063</v>
+        <v>1016.310824070195</v>
       </c>
       <c r="N35" t="n">
-        <v>865.0436589000361</v>
+        <v>1093.790416729724</v>
       </c>
       <c r="O35" t="n">
-        <v>1135.168823298929</v>
+        <v>1130.042840267737</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.002081456951</v>
+        <v>1350.708613273444</v>
       </c>
       <c r="Q35" t="n">
-        <v>1402.362428097127</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853637</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="U35" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W35" t="n">
         <v>1264.40697954901</v>
       </c>
       <c r="X35" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805021</v>
+        <v>992.0856682805028</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>341.6643677574517</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="C36" t="n">
-        <v>341.6643677574517</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="D36" t="n">
-        <v>180.8842515184834</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="E36" t="n">
-        <v>180.8842515184834</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="F36" t="n">
-        <v>180.8842515184834</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G36" t="n">
-        <v>156.2750006323238</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854644</v>
       </c>
       <c r="L36" t="n">
         <v>187.072035506909</v>
@@ -7047,19 +7047,19 @@
         <v>795.0597779221283</v>
       </c>
       <c r="U36" t="n">
-        <v>555.4358983965889</v>
+        <v>794.057203223525</v>
       </c>
       <c r="V36" t="n">
-        <v>550.9774851271592</v>
+        <v>550.9774851271591</v>
       </c>
       <c r="W36" t="n">
-        <v>520.2002206843867</v>
+        <v>281.5789158574504</v>
       </c>
       <c r="X36" t="n">
-        <v>520.2002206843867</v>
+        <v>281.5789158574504</v>
       </c>
       <c r="Y36" t="n">
-        <v>520.2002206843867</v>
+        <v>55.93822279277805</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.2678691448615</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="C37" t="n">
-        <v>106.2678691448615</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="D37" t="n">
-        <v>106.2678691448615</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="E37" t="n">
-        <v>106.2678691448615</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="F37" t="n">
-        <v>106.2678691448615</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="H37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="I37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="J37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="K37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="L37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="M37" t="n">
-        <v>106.2678691448615</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="N37" t="n">
-        <v>133.4971554498842</v>
+        <v>96.19738185746485</v>
       </c>
       <c r="O37" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="P37" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="R37" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="S37" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032667</v>
+        <v>92.91839161032685</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458618</v>
+        <v>83.95483261458628</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="X37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.2358797422997</v>
+        <v>29.3329989674463</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358895</v>
+        <v>852.8410737358915</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151703</v>
+        <v>737.7194519151724</v>
       </c>
       <c r="D38" t="n">
-        <v>635.156757103493</v>
+        <v>635.1567571034948</v>
       </c>
       <c r="E38" t="n">
-        <v>498.546837625746</v>
+        <v>498.5468376257476</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193352</v>
+        <v>329.8961731193367</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114942</v>
+        <v>145.4609201114957</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198431</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J38" t="n">
-        <v>29.33299896744628</v>
+        <v>75.17593834285225</v>
       </c>
       <c r="K38" t="n">
-        <v>258.079756797135</v>
+        <v>75.17593834285225</v>
       </c>
       <c r="L38" t="n">
-        <v>540.5763248674989</v>
+        <v>357.672506413216</v>
       </c>
       <c r="M38" t="n">
-        <v>857.4284019919337</v>
+        <v>674.5245835376509</v>
       </c>
       <c r="N38" t="n">
-        <v>1049.687099082298</v>
+        <v>985.8769170580607</v>
       </c>
       <c r="O38" t="n">
-        <v>1085.939522620311</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="P38" t="n">
-        <v>1306.605295626018</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="Q38" t="n">
-        <v>1452.965642266195</v>
+        <v>1402.36242809713</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.965642266195</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859704</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142042</v>
       </c>
       <c r="W38" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805022</v>
+        <v>992.0856682805043</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.9374994148889</v>
+        <v>524.1040353677561</v>
       </c>
       <c r="C39" t="n">
-        <v>189.9374994148889</v>
+        <v>524.1040353677561</v>
       </c>
       <c r="D39" t="n">
-        <v>189.9374994148889</v>
+        <v>363.3239191287878</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9374994148889</v>
+        <v>189.7607152502022</v>
       </c>
       <c r="F39" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G39" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H39" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I39" t="n">
-        <v>81.71626457891401</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854647</v>
       </c>
       <c r="L39" t="n">
         <v>187.072035506909</v>
@@ -7278,25 +7278,25 @@
         <v>795.0597779221283</v>
       </c>
       <c r="S39" t="n">
-        <v>601.6560039672551</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="T39" t="n">
-        <v>601.6560039672551</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="U39" t="n">
-        <v>600.6534292686517</v>
+        <v>794.057203223525</v>
       </c>
       <c r="V39" t="n">
-        <v>596.1950159992219</v>
+        <v>554.8812998105286</v>
       </c>
       <c r="W39" t="n">
-        <v>368.473352341824</v>
+        <v>524.1040353677561</v>
       </c>
       <c r="X39" t="n">
-        <v>368.473352341824</v>
+        <v>524.1040353677561</v>
       </c>
       <c r="Y39" t="n">
-        <v>368.473352341824</v>
+        <v>524.1040353677561</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="L40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="M40" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032688</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458631</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358895</v>
+        <v>852.8410737358913</v>
       </c>
       <c r="C41" t="n">
-        <v>737.71945191517</v>
+        <v>737.7194519151718</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034927</v>
+        <v>635.1567571034946</v>
       </c>
       <c r="E41" t="n">
-        <v>498.546837625746</v>
+        <v>498.5468376257475</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193352</v>
+        <v>329.8961731193367</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114943</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198434</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J41" t="n">
-        <v>88.3829061980224</v>
+        <v>88.38290619802513</v>
       </c>
       <c r="K41" t="n">
-        <v>88.3829061980224</v>
+        <v>88.38290619802513</v>
       </c>
       <c r="L41" t="n">
-        <v>137.0067334075061</v>
+        <v>370.8794742683889</v>
       </c>
       <c r="M41" t="n">
-        <v>453.8588105319409</v>
+        <v>453.8588105319436</v>
       </c>
       <c r="N41" t="n">
-        <v>765.2111440523508</v>
+        <v>765.2111440523535</v>
       </c>
       <c r="O41" t="n">
-        <v>1035.336308451243</v>
+        <v>1035.336308451246</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456951</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097128</v>
+        <v>1402.36242809713</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853638</v>
+        <v>1444.05993385364</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859704</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142042</v>
       </c>
       <c r="W41" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805022</v>
+        <v>992.085668280504</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>809.1444042536068</v>
+        <v>713.5163096347924</v>
       </c>
       <c r="C42" t="n">
-        <v>809.1444042536068</v>
+        <v>524.1040353677561</v>
       </c>
       <c r="D42" t="n">
-        <v>809.1444042536068</v>
+        <v>363.3239191287878</v>
       </c>
       <c r="E42" t="n">
-        <v>809.1444042536068</v>
+        <v>189.7607152502022</v>
       </c>
       <c r="F42" t="n">
-        <v>809.1444042536068</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G42" t="n">
-        <v>809.1444042536068</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H42" t="n">
-        <v>809.1444042536068</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I42" t="n">
-        <v>700.9231694176319</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J42" t="n">
-        <v>700.9231694176319</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K42" t="n">
-        <v>739.928364838732</v>
+        <v>68.33819438854647</v>
       </c>
       <c r="L42" t="n">
-        <v>858.6622059570946</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M42" t="n">
-        <v>1041.973662446195</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N42" t="n">
-        <v>1248.556717295179</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O42" t="n">
-        <v>1381.792770845956</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P42" t="n">
-        <v>1466.649948372314</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q42" t="n">
-        <v>1466.649948372314</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R42" t="n">
-        <v>1466.649948372314</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="S42" t="n">
-        <v>1466.649948372314</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="T42" t="n">
-        <v>1466.649948372314</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.647373673711</v>
+        <v>794.0572032235249</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.188960404281</v>
+        <v>789.5987899540951</v>
       </c>
       <c r="W42" t="n">
-        <v>1191.790391134572</v>
+        <v>758.8215255113225</v>
       </c>
       <c r="X42" t="n">
-        <v>987.680257180542</v>
+        <v>758.8215255113225</v>
       </c>
       <c r="Y42" t="n">
-        <v>987.680257180542</v>
+        <v>758.8215255113225</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744628</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744628</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744628</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744628</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744628</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="I43" t="n">
-        <v>30.65110522122738</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="J43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="K43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113003</v>
+        <v>119.4749160801228</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032694</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458634</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358913</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151722</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034934</v>
+        <v>635.156757103495</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257463</v>
+        <v>498.546837625748</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193355</v>
+        <v>329.8961731193372</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114945</v>
+        <v>145.4609201114959</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198549</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J44" t="n">
-        <v>29.33299896744628</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K44" t="n">
-        <v>258.079756797135</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L44" t="n">
-        <v>306.7035840066187</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M44" t="n">
-        <v>623.5556611310535</v>
+        <v>1016.310824070195</v>
       </c>
       <c r="N44" t="n">
-        <v>911.5714906925273</v>
+        <v>1093.790416729724</v>
       </c>
       <c r="O44" t="n">
-        <v>1181.69665509142</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="P44" t="n">
-        <v>1402.362428097128</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097128</v>
+        <v>1402.36242809713</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853638</v>
+        <v>1444.05993385364</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859704</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142042</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805027</v>
+        <v>992.085668280504</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>329.8382045109093</v>
+        <v>471.5451539647627</v>
       </c>
       <c r="C45" t="n">
-        <v>329.8382045109093</v>
+        <v>471.5451539647627</v>
       </c>
       <c r="D45" t="n">
-        <v>329.8382045109093</v>
+        <v>471.5451539647627</v>
       </c>
       <c r="E45" t="n">
-        <v>156.2750006323238</v>
+        <v>297.9819500861771</v>
       </c>
       <c r="F45" t="n">
-        <v>156.2750006323238</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="G45" t="n">
-        <v>156.2750006323238</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744628</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854647</v>
       </c>
       <c r="L45" t="n">
         <v>187.072035506909</v>
@@ -7746,31 +7746,31 @@
         <v>795.0597779221283</v>
       </c>
       <c r="Q45" t="n">
-        <v>788.9612584033343</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R45" t="n">
-        <v>788.9612584033343</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="S45" t="n">
-        <v>788.9612584033343</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="T45" t="n">
-        <v>788.9612584033343</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="U45" t="n">
-        <v>787.958683704731</v>
+        <v>658.38532498902</v>
       </c>
       <c r="V45" t="n">
-        <v>544.8789656083651</v>
+        <v>653.9269117195902</v>
       </c>
       <c r="W45" t="n">
-        <v>508.3740574378444</v>
+        <v>623.1496472768176</v>
       </c>
       <c r="X45" t="n">
-        <v>508.3740574378444</v>
+        <v>471.5451539647627</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.3740574378444</v>
+        <v>471.5451539647627</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D46" t="n">
-        <v>119.4749160801228</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E46" t="n">
-        <v>119.4749160801228</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F46" t="n">
-        <v>119.4749160801228</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G46" t="n">
-        <v>119.4749160801228</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H46" t="n">
-        <v>119.4749160801228</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="J46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="K46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="L46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="M46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="N46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="O46" t="n">
-        <v>119.4749160801228</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113003</v>
+        <v>37.48819342851078</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032694</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458634</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>204.9161881242765</v>
+        <v>162.1010486195506</v>
       </c>
       <c r="M12" t="n">
-        <v>158.343471657012</v>
+        <v>201.1586111617381</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9441062019114</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322747</v>
+        <v>120.6409106178089</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594501</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,19 +9009,19 @@
         <v>131.9742862901104</v>
       </c>
       <c r="L15" t="n">
-        <v>201.5002359135912</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617382</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N15" t="n">
-        <v>101.9441062019114</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O15" t="n">
-        <v>205.1857278322749</v>
+        <v>205.1857278322748</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594504</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3713709098107</v>
+        <v>204.9161881242766</v>
       </c>
       <c r="M18" t="n">
-        <v>201.1586111617382</v>
+        <v>116.6137939472722</v>
       </c>
       <c r="N18" t="n">
-        <v>186.4889234163774</v>
+        <v>183.0729712056919</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322749</v>
+        <v>205.1857278322748</v>
       </c>
       <c r="P18" t="n">
-        <v>162.3792310547243</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242767</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6137939472722</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N21" t="n">
         <v>186.4889234163774</v>
       </c>
       <c r="O21" t="n">
-        <v>205.1857278322749</v>
+        <v>205.1857278322748</v>
       </c>
       <c r="P21" t="n">
-        <v>162.3792310547243</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>201.5002359135912</v>
+        <v>162.1010486195506</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617382</v>
+        <v>116.6137939472722</v>
       </c>
       <c r="N24" t="n">
         <v>186.4889234163774</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6409106178089</v>
+        <v>205.1857278322748</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594504</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9757986516687</v>
+        <v>169.9757986516686</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550142</v>
+        <v>146.0940556550141</v>
       </c>
       <c r="D11" t="n">
-        <v>49.11590070159687</v>
+        <v>133.6607179160626</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3674703354715</v>
+        <v>132.2515378627789</v>
       </c>
       <c r="F11" t="n">
-        <v>199.0878079138488</v>
+        <v>114.5429906993828</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7145505302647</v>
+        <v>214.7145505302646</v>
       </c>
       <c r="H11" t="n">
-        <v>58.24039401035253</v>
+        <v>58.2403940103523</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.390759431786162</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998758</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829874</v>
+        <v>116.7683418829873</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996023</v>
+        <v>133.7850220996022</v>
       </c>
       <c r="X11" t="n">
-        <v>71.12645535407572</v>
+        <v>155.6712725685414</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1741256922853</v>
+        <v>178.1741256922852</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.406963517387339e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.654448148704915</v>
+        <v>1.654448148704688</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>169.9757986516687</v>
       </c>
       <c r="C14" t="n">
-        <v>61.54923844054815</v>
+        <v>146.0940556550142</v>
       </c>
       <c r="D14" t="n">
         <v>133.6607179160626</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3674703354715</v>
+        <v>82.82265312100554</v>
       </c>
       <c r="F14" t="n">
         <v>199.0878079138488</v>
@@ -23510,7 +23510,7 @@
         <v>214.7145505302647</v>
       </c>
       <c r="H14" t="n">
-        <v>142.7852112248183</v>
+        <v>84.54129376281294</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.12798498931291</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217994</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>116.7683418829874</v>
       </c>
       <c r="W14" t="n">
-        <v>118.8746628992082</v>
+        <v>49.24020488513628</v>
       </c>
       <c r="X14" t="n">
-        <v>71.12645535407546</v>
+        <v>155.6712725685415</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.62930847781922</v>
+        <v>178.1741256922852</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65444814870466</v>
+        <v>1.654448148704716</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.9572771194485e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.874056465567264e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-4.939691352219178e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>981127.4722570354</v>
+        <v>981127.4722570356</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>981127.4722570358</v>
+        <v>981127.4722570357</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>529159.1971058758</v>
+      </c>
+      <c r="C2" t="n">
         <v>529159.1971058756</v>
-      </c>
-      <c r="C2" t="n">
-        <v>529159.1971058757</v>
       </c>
       <c r="D2" t="n">
         <v>529159.1971058756</v>
       </c>
       <c r="E2" t="n">
-        <v>455994.0534122871</v>
+        <v>455994.0534122874</v>
       </c>
       <c r="F2" t="n">
-        <v>455994.0534122874</v>
+        <v>455994.0534122873</v>
       </c>
       <c r="G2" t="n">
+        <v>530231.1293151216</v>
+      </c>
+      <c r="H2" t="n">
+        <v>530231.1293151216</v>
+      </c>
+      <c r="I2" t="n">
         <v>530231.1293151217</v>
-      </c>
-      <c r="H2" t="n">
-        <v>530231.1293151218</v>
-      </c>
-      <c r="I2" t="n">
-        <v>530231.1293151216</v>
       </c>
       <c r="J2" t="n">
         <v>530231.1293151209</v>
       </c>
       <c r="K2" t="n">
+        <v>530231.1293151206</v>
+      </c>
+      <c r="L2" t="n">
+        <v>530231.1293151211</v>
+      </c>
+      <c r="M2" t="n">
+        <v>530231.1293151212</v>
+      </c>
+      <c r="N2" t="n">
         <v>530231.129315121</v>
       </c>
-      <c r="L2" t="n">
-        <v>530231.1293151218</v>
-      </c>
-      <c r="M2" t="n">
-        <v>530231.129315121</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>530231.1293151212</v>
       </c>
-      <c r="O2" t="n">
-        <v>530231.129315121</v>
-      </c>
       <c r="P2" t="n">
-        <v>530231.1293151211</v>
+        <v>530231.1293151212</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.040755637</v>
+        <v>272248.0407556371</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105057.1604753343</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536787</v>
+        <v>161150.2341536788</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105057.1604753344</v>
+        <v>105057.1604753342</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690187</v>
+        <v>18715.71856690184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.1943806972</v>
+        <v>65215.19438069731</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>488407.6697575154</v>
       </c>
       <c r="E4" t="n">
-        <v>382892.3279665351</v>
+        <v>382892.3279665352</v>
       </c>
       <c r="F4" t="n">
         <v>382892.3279665352</v>
@@ -26451,13 +26451,13 @@
         <v>453523.1062128385</v>
       </c>
       <c r="N4" t="n">
+        <v>453523.1062128385</v>
+      </c>
+      <c r="O4" t="n">
+        <v>453523.1062128385</v>
+      </c>
+      <c r="P4" t="n">
         <v>453523.1062128386</v>
-      </c>
-      <c r="O4" t="n">
-        <v>453523.1062128386</v>
-      </c>
-      <c r="P4" t="n">
-        <v>453523.1062128385</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862006</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="F5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="G5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862116</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862116</v>
       </c>
       <c r="J5" t="n">
         <v>47598.27644989196</v>
@@ -26497,19 +26497,19 @@
         <v>47598.27644989196</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.27644989197</v>
+        <v>47598.27644989196</v>
       </c>
       <c r="M5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350354</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350354</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350354</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7123.927348360223</v>
+        <v>7119.460964155265</v>
       </c>
       <c r="C6" t="n">
-        <v>7123.927348360339</v>
+        <v>7119.460964155032</v>
       </c>
       <c r="D6" t="n">
-        <v>7123.927348360223</v>
+        <v>7119.460964155032</v>
       </c>
       <c r="E6" t="n">
-        <v>-223717.6740885051</v>
+        <v>-224026.9952381002</v>
       </c>
       <c r="F6" t="n">
-        <v>48530.36666713213</v>
+        <v>48221.04551753688</v>
       </c>
       <c r="G6" t="n">
-        <v>-63858.04004981081</v>
+        <v>-63858.04004981092</v>
       </c>
       <c r="H6" t="n">
-        <v>41199.12042552358</v>
+        <v>41199.12042552342</v>
       </c>
       <c r="I6" t="n">
-        <v>41199.12042552335</v>
+        <v>41199.12042552354</v>
       </c>
       <c r="J6" t="n">
-        <v>-132419.9514913971</v>
+        <v>-132419.9514913973</v>
       </c>
       <c r="K6" t="n">
-        <v>28730.28266228166</v>
+        <v>28730.28266228131</v>
       </c>
       <c r="L6" t="n">
-        <v>-76326.87781305198</v>
+        <v>-76326.87781305244</v>
       </c>
       <c r="M6" t="n">
-        <v>13567.58829187711</v>
+        <v>13567.58829187733</v>
       </c>
       <c r="N6" t="n">
-        <v>32283.30685877915</v>
+        <v>32283.30685877895</v>
       </c>
       <c r="O6" t="n">
-        <v>-32931.8875219183</v>
+        <v>-32931.88752191814</v>
       </c>
       <c r="P6" t="n">
-        <v>32283.30685877909</v>
+        <v>32283.30685877913</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F2" t="n">
         <v>204.1114417261647</v>
@@ -26701,10 +26701,10 @@
         <v>335.4328923203325</v>
       </c>
       <c r="H2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="J2" t="n">
         <v>212.8404435700394</v>
@@ -26713,19 +26713,19 @@
         <v>212.8404435700394</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="J4" t="n">
         <v>451.2073043075446</v>
@@ -26820,16 +26820,16 @@
         <v>451.2073043075446</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930787</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930789</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930789</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930789</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>131.3214505941678</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5189929758715</v>
+        <v>81.51899297587167</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941679</v>
+        <v>131.3214505941678</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862733</v>
+        <v>23.3946482086273</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5189929758715</v>
+        <v>81.51899297587164</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>131.3214505941678</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5189929758715</v>
+        <v>81.51899297587167</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J11" t="n">
-        <v>78.15298338426565</v>
+        <v>75.74779675012003</v>
       </c>
       <c r="K11" t="n">
-        <v>5.177760637567111</v>
+        <v>82.13272185533785</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>97.88518878534708</v>
+        <v>13.34037157088131</v>
       </c>
       <c r="Q11" t="n">
         <v>88.39635779869053</v>
       </c>
       <c r="R11" t="n">
-        <v>194.1163990953234</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>119.5157920369918</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9249190008588</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261646</v>
+        <v>174.7670424808369</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261646</v>
+        <v>132.7680972250047</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="13">
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1114417261646</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>204.1114417261646</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28275,46 +28275,46 @@
         <v>66.39518063773794</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33949144013923</v>
+        <v>82.60546626452745</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36038278515812</v>
+        <v>108.905199999624</v>
       </c>
       <c r="N13" t="n">
-        <v>100.2288572122336</v>
+        <v>100.2288572122338</v>
       </c>
       <c r="O13" t="n">
-        <v>43.03330049303562</v>
+        <v>36.70659427566597</v>
       </c>
       <c r="P13" t="n">
-        <v>142.3625888402766</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.7594634122123</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="R13" t="n">
-        <v>204.1114417261646</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="14">
@@ -28348,7 +28348,7 @@
         <v>204.1114417261647</v>
       </c>
       <c r="J14" t="n">
-        <v>114.7715930186222</v>
+        <v>75.74779675012003</v>
       </c>
       <c r="K14" t="n">
         <v>5.177760637567111</v>
@@ -28363,16 +28363,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>47.92620758011006</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>13.34037157088131</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.39635779869053</v>
+        <v>165.3513190164613</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1163990953234</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="S14" t="n">
         <v>204.1114417261647</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>102.9733343098999</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28448,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769385</v>
       </c>
       <c r="S15" t="n">
         <v>191.4697362153245</v>
@@ -28460,19 +28460,19 @@
         <v>204.1114417261647</v>
       </c>
       <c r="U15" t="n">
+        <v>152.6828235158181</v>
+      </c>
+      <c r="V15" t="n">
         <v>204.1114417261647</v>
       </c>
-      <c r="V15" t="n">
-        <v>156.1041037009362</v>
-      </c>
       <c r="W15" t="n">
-        <v>184.1164202640182</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X15" t="n">
         <v>204.1114417261647</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261647</v>
+        <v>193.5752347727425</v>
       </c>
     </row>
     <row r="16">
@@ -28482,49 +28482,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="D16" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E16" t="n">
+        <v>150.9533424006215</v>
+      </c>
+      <c r="F16" t="n">
         <v>204.1114417261647</v>
       </c>
-      <c r="E16" t="n">
-        <v>141.676141212225</v>
-      </c>
-      <c r="F16" t="n">
-        <v>138.9268822184467</v>
-      </c>
       <c r="G16" t="n">
-        <v>168.6953110816783</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H16" t="n">
+        <v>165.7758191012691</v>
+      </c>
+      <c r="I16" t="n">
         <v>204.1114417261647</v>
       </c>
-      <c r="I16" t="n">
-        <v>164.6886553331604</v>
-      </c>
       <c r="J16" t="n">
-        <v>119.8533137078861</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="K16" t="n">
         <v>66.39518063773794</v>
       </c>
       <c r="L16" t="n">
-        <v>115.8843086546052</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M16" t="n">
         <v>24.36038278515812</v>
       </c>
       <c r="N16" t="n">
-        <v>47.03757903575901</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O16" t="n">
         <v>36.70659427566597</v>
       </c>
       <c r="P16" t="n">
-        <v>142.3625888402769</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7594634122123</v>
@@ -28582,13 +28582,13 @@
         <v>335.4328923203325</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5401725389594</v>
+        <v>325.0849897534253</v>
       </c>
       <c r="J17" t="n">
         <v>75.74779675012003</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567111</v>
+        <v>7.582947271713183</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,13 +28597,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6.282602406860192</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>94.00777301263338</v>
+        <v>13.34037157088131</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39635779869053</v>
@@ -28643,28 +28643,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>102.9733343098999</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>74.62749786211253</v>
+        <v>142.602207353036</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>87.28275462533372</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>74.27862190546239</v>
       </c>
       <c r="G18" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H18" t="n">
-        <v>51.20550664572707</v>
+        <v>41.12776443376275</v>
       </c>
       <c r="I18" t="n">
         <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3151594521598</v>
@@ -28703,7 +28703,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>182.1597663625456</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5401725389594</v>
+        <v>325.0849897534253</v>
       </c>
       <c r="J20" t="n">
         <v>75.74779675012003</v>
@@ -28828,7 +28828,7 @@
         <v>5.177760637567111</v>
       </c>
       <c r="L20" t="n">
-        <v>2.405186634146297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>97.88518878534731</v>
+        <v>13.34037157088131</v>
       </c>
       <c r="Q20" t="n">
         <v>88.39635779869053</v>
@@ -28855,19 +28855,19 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495670361522</v>
+        <v>252.5547536702983</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="21">
@@ -28883,10 +28883,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>84.70524007407691</v>
+        <v>74.62749786211259</v>
       </c>
       <c r="E21" t="n">
-        <v>87.28275462533367</v>
+        <v>155.2574641162572</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28898,10 +28898,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I21" t="n">
-        <v>22.59420527314913</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9249190008585</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T21" t="n">
         <v>214.9446545048526</v>
@@ -28937,10 +28937,10 @@
         <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009363</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>182.1597663625456</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5401725389594</v>
+        <v>325.0849897534253</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74779675012003</v>
+        <v>78.15298338426611</v>
       </c>
       <c r="K23" t="n">
         <v>5.177760637567111</v>
@@ -29092,19 +29092,19 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>334.6943842506182</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V23" t="n">
-        <v>323.2849702432982</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="24">
@@ -29117,16 +29117,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>113.0510765218643</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>87.28275462533367</v>
+        <v>87.28275462533372</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>74.27862190546239</v>
       </c>
       <c r="G24" t="n">
         <v>148.7380872222379</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.037534323606021</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769385</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9249190008585</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T24" t="n">
         <v>214.9446545048526</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>132.7680972250046</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.95474545513</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29299,7 +29299,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="L26" t="n">
         <v>212.8404435700394</v>
@@ -29308,7 +29308,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700392</v>
       </c>
       <c r="O26" t="n">
         <v>212.8404435700394</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>31.49469823407514</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,13 +29363,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I27" t="n">
         <v>107.1390224876151</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606021</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S27" t="n">
         <v>191.4697362153245</v>
@@ -29408,13 +29408,13 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8404435700394</v>
+        <v>101.0433563276746</v>
       </c>
       <c r="V27" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X27" t="n">
         <v>212.8404435700394</v>
@@ -29457,10 +29457,10 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K28" t="n">
+        <v>121.9462046493185</v>
+      </c>
+      <c r="L28" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="L28" t="n">
-        <v>31.33949144013923</v>
       </c>
       <c r="M28" t="n">
         <v>24.36038278515812</v>
@@ -29469,7 +29469,7 @@
         <v>15.68403999776787</v>
       </c>
       <c r="O28" t="n">
-        <v>127.3133074848457</v>
+        <v>36.70659427566597</v>
       </c>
       <c r="P28" t="n">
         <v>57.81777162581085</v>
@@ -29557,7 +29557,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700392</v>
       </c>
       <c r="S29" t="n">
         <v>212.8404435700394</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29606,7 +29606,7 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I30" t="n">
         <v>107.1390224876151</v>
@@ -29636,10 +29636,10 @@
         <v>6.037534323606021</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4697362153245</v>
+        <v>55.16436930519077</v>
       </c>
       <c r="T30" t="n">
         <v>212.8404435700394</v>
@@ -29657,7 +29657,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="Y30" t="n">
-        <v>62.96957629810896</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="31">
@@ -29685,19 +29685,19 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7758191012691</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="I31" t="n">
         <v>164.6886553331604</v>
       </c>
       <c r="J31" t="n">
-        <v>175.4043377194669</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K31" t="n">
         <v>66.39518063773794</v>
       </c>
       <c r="L31" t="n">
-        <v>212.8404435700394</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M31" t="n">
         <v>24.36038278515812</v>
@@ -29706,10 +29706,10 @@
         <v>15.68403999776787</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70659427566597</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81777162581085</v>
+        <v>71.67127400414759</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7594634122123</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8404435700387</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="33">
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>30.16929933547249</v>
+        <v>42.4523052763478</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7380872222379</v>
@@ -29849,7 +29849,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29879,22 +29879,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="34">
@@ -29907,22 +29907,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>190.7735000847175</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G34" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8404435700395</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I34" t="n">
         <v>164.6886553331604</v>
@@ -29940,7 +29940,7 @@
         <v>24.36038278515812</v>
       </c>
       <c r="N34" t="n">
-        <v>60.59352796107027</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O34" t="n">
         <v>36.70659427566597</v>
@@ -29955,25 +29955,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K35" t="n">
-        <v>5.177760637567111</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.3941676900955</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2350917786668</v>
+        <v>205.5088174945193</v>
       </c>
       <c r="R35" t="n">
-        <v>236.2350917786668</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="36">
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.4113228105873</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30077,10 +30077,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>124.3749288449399</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I36" t="n">
         <v>107.1390224876151</v>
@@ -30119,19 +30119,19 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V36" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>236.2350917786668</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6953110816783</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H37" t="n">
         <v>165.7758191012691</v>
@@ -30177,10 +30177,10 @@
         <v>24.36038278515812</v>
       </c>
       <c r="N37" t="n">
-        <v>43.18836959880091</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70659427566597</v>
+        <v>86.88001210782321</v>
       </c>
       <c r="P37" t="n">
         <v>57.81777162581085</v>
@@ -30195,22 +30195,22 @@
         <v>235.3428244409627</v>
       </c>
       <c r="T37" t="n">
-        <v>236.2350917786668</v>
+        <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>236.2350917786668</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J38" t="n">
-        <v>75.74779675012003</v>
+        <v>122.0537961192169</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2350917786668</v>
+        <v>5.177760637567111</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N38" t="n">
-        <v>115.9384893240757</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088131</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="39">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380872222379</v>
@@ -30320,10 +30320,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30350,19 +30350,19 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
         <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V39" t="n">
-        <v>236.2350917786668</v>
+        <v>3.864776536535857</v>
       </c>
       <c r="W39" t="n">
-        <v>41.26013655618766</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30411,7 +30411,7 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M40" t="n">
-        <v>142.0735813143036</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N40" t="n">
         <v>15.68403999776787</v>
@@ -30420,7 +30420,7 @@
         <v>36.70659427566597</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81777162581085</v>
+        <v>175.5309701549565</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7594634122123</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J41" t="n">
-        <v>135.3941676900959</v>
+        <v>135.3941676900986</v>
       </c>
       <c r="K41" t="n">
         <v>5.177760637567111</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M41" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="42">
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>131.8983306799009</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380872222379</v>
@@ -30557,7 +30557,7 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J42" t="n">
         <v>51.85943295535306</v>
@@ -30593,16 +30593,16 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V42" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X42" t="n">
-        <v>15.24388182498041</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30636,10 +30636,10 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I43" t="n">
-        <v>166.0200757915252</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J43" t="n">
-        <v>236.2350917786668</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K43" t="n">
         <v>66.39518063773794</v>
@@ -30660,7 +30660,7 @@
         <v>57.81777162581085</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7594634122123</v>
+        <v>153.4202204134021</v>
       </c>
       <c r="R43" t="n">
         <v>203.184286794587</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J44" t="n">
-        <v>75.74779675012003</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N44" t="n">
-        <v>212.6628655575192</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2350917786668</v>
+        <v>127.2315567567844</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088131</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.39635779869053</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30785,16 +30785,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>51.85943295535306</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606021</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.4697362153245</v>
@@ -30830,16 +30830,16 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W45" t="n">
-        <v>230.5647244881961</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>67.2244660605362</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>236.2350917786668</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30873,7 +30873,7 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I46" t="n">
-        <v>164.6886553331604</v>
+        <v>172.9262254958518</v>
       </c>
       <c r="J46" t="n">
         <v>119.8533137078861</v>
@@ -30894,10 +30894,10 @@
         <v>36.70659427566597</v>
       </c>
       <c r="P46" t="n">
-        <v>84.47852862700026</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7594634122123</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R46" t="n">
         <v>203.184286794587</v>
@@ -30909,13 +30909,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.405186634145626</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>76.95496121777073</v>
       </c>
       <c r="L11" t="n">
         <v>49.11497697927646</v>
@@ -35425,13 +35425,13 @@
         <v>36.61860963435595</v>
       </c>
       <c r="P11" t="n">
-        <v>84.54481721446578</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9.995042630841294</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>39.39918729404055</v>
       </c>
       <c r="L12" t="n">
-        <v>84.54481721446578</v>
+        <v>41.72967770973992</v>
       </c>
       <c r="M12" t="n">
-        <v>41.72967770973978</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446578</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.92879147545392</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.43530051393964</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35571,25 +35571,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>51.26597482438821</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="N13" t="n">
-        <v>84.54481721446578</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="O13" t="n">
-        <v>6.32670621736965</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54481721446578</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>77.35197831395236</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9271549315776006</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>39.02379626850221</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35659,16 +35659,16 @@
         <v>78.26221480760582</v>
       </c>
       <c r="O14" t="n">
-        <v>84.54481721446601</v>
+        <v>36.61860963435595</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>76.9549612177708</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.995042630841265</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>81.12886500378053</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446601</v>
+        <v>81.12886500378049</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,49 +35778,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>26.49452106119656</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.65426075419231</v>
       </c>
       <c r="D16" t="n">
-        <v>58.92879147545395</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9.277201188396518</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.18455950771801</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.41613064448634</v>
       </c>
       <c r="H16" t="n">
-        <v>38.33562262489558</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.42278639300426</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>84.25812801827858</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>31.35353903799114</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.405186634146071</v>
       </c>
       <c r="L17" t="n">
         <v>49.11497697927646</v>
@@ -35893,13 +35893,13 @@
         <v>83.81751137732803</v>
       </c>
       <c r="N17" t="n">
-        <v>84.54481721446601</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O17" t="n">
         <v>36.61860963435595</v>
       </c>
       <c r="P17" t="n">
-        <v>80.66740144175208</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39918729404055</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="M18" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>84.54481721446601</v>
+        <v>81.12886500378049</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="P18" t="n">
-        <v>41.72967770973995</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.52016361342276</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M20" t="n">
         <v>83.81751137732803</v>
@@ -36136,7 +36136,7 @@
         <v>36.61860963435595</v>
       </c>
       <c r="P20" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.405186634146071</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39918729404055</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>81.12886500378049</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="P21" t="n">
-        <v>41.72967770973995</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.405186634146071</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.405186634146244</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39918729404055</v>
       </c>
       <c r="L24" t="n">
-        <v>81.12886500378053</v>
+        <v>41.72967770973992</v>
       </c>
       <c r="M24" t="n">
-        <v>84.54481721446601</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="P24" t="n">
-        <v>84.54481721446601</v>
+        <v>84.54481721446595</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199193</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6626829324724</v>
+        <v>207.6626829324723</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9554205493158</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M26" t="n">
         <v>296.6579549473674</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1026583776452</v>
+        <v>291.102658377645</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4590532043953</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P26" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4440857713488</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471596</v>
+        <v>18.72404447471602</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4452629323014</v>
+        <v>55.55102401158061</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.5009521299002</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>90.60671320917974</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>207.6626829324723</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9554205493158</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M29" t="n">
         <v>296.6579549473674</v>
@@ -36844,7 +36844,7 @@
         <v>291.1026583776452</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043953</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P29" t="n">
         <v>199.5000719991581</v>
@@ -36853,7 +36853,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471599</v>
+        <v>18.72404447471576</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36981,19 +36981,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.06462446877036</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>55.55102401158081</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.5009521299002</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1338492943734</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>13.85350237833675</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0926468199195</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6626829324724</v>
+        <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6579549473676</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1026583776445</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5000719991582</v>
+        <v>199.5000719991581</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.444085771349</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471611</v>
+        <v>18.72404447471598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,22 +37203,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.31631911274515</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.65779331932868</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16430235781451</v>
+        <v>71.16430235781439</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91356135159285</v>
+        <v>73.91356135159273</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06462446877042</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44.9094879633024</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579433</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559949</v>
+        <v>320.0526031559948</v>
       </c>
       <c r="N35" t="n">
         <v>78.26221480760582</v>
       </c>
       <c r="O35" t="n">
-        <v>272.8537014130228</v>
+        <v>36.61860963435595</v>
       </c>
       <c r="P35" t="n">
-        <v>122.0537961192142</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.8387339799763</v>
+        <v>117.1124596958288</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334344</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189257</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032224</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.61817111369874</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>67.53978069698843</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>27.50432960103304</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>50.17341783215723</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.49687884991522</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.09381896449841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>46.3059993690969</v>
       </c>
       <c r="K38" t="n">
-        <v>231.0573311410997</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3500687579433</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M38" t="n">
         <v>320.0526031559948</v>
       </c>
       <c r="N38" t="n">
-        <v>194.2007041316815</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O38" t="n">
-        <v>36.61860963435595</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077855</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.11869268334335</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.995665063189172</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032215</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>117.7131985291457</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>59.64637093997587</v>
+        <v>59.6463709399786</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11497697927646</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M41" t="n">
-        <v>320.0526031559948</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N41" t="n">
-        <v>314.4973065862726</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O41" t="n">
         <v>272.8537014130227</v>
       </c>
       <c r="P41" t="n">
-        <v>222.8947202077855</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334341</v>
+        <v>42.11869268334333</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189229</v>
+        <v>8.995665063189143</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032212</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>91.05244152795601</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.331420458364751</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>116.3817780707807</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>26.66075700118976</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L44" t="n">
-        <v>49.11497697927646</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M44" t="n">
-        <v>320.0526031559948</v>
+        <v>320.0526031559947</v>
       </c>
       <c r="N44" t="n">
-        <v>290.925080365125</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O44" t="n">
-        <v>272.8537014130227</v>
+        <v>163.8501663911403</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077855</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334341</v>
+        <v>42.11869268334333</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189229</v>
+        <v>8.995665063189143</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032212</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>91.05244152795609</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.237570162691382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>26.66075700118941</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>109.4756283664544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
